--- a/src/resources/datasets/Stallions-Stats-2024.xlsx
+++ b/src/resources/datasets/Stallions-Stats-2024.xlsx
@@ -3929,11 +3929,11 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Aravind Shanthakumar</t>
+          <t>Rajesh Kumbhardare</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -3951,11 +3951,11 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Rajesh Kumbhardare</t>
+          <t>Aravind Shanthakumar</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -6186,11 +6186,11 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Venkata Subharaju Dommaraju</t>
+          <t>Muthukumar Shankar</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
@@ -6210,11 +6210,11 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Muthukumar Shankar</t>
+          <t>Venkata Subharaju Dommaraju</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
         <v>1</v>
